--- a/SocScrapeContent/sheets/cams.xlsx
+++ b/SocScrapeContent/sheets/cams.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Pathways" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clubs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Athletics" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,16 +38,52 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff8888"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ff88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008888ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff88ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff88"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -232,11 +270,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="00666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -249,6 +317,21 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -1055,4 +1138,372 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Club Name</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Prominent club? (Choose up to 6 clubs to be placed in a Top Clubs category at the top of the clubs page)</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Description (1-2 sentences) for top clubs</t>
+        </is>
+      </c>
+      <c r="D1" s="12" t="inlineStr">
+        <is>
+          <t>Category (Arts, Cultural, Volunteering &amp; Advocacy, Social, STEM, or Other)</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>Field Trips</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Scholarships</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Volunteer Opportunities</t>
+        </is>
+      </c>
+      <c r="H1" s="13" t="inlineStr">
+        <is>
+          <t>Does the club participate in competitions?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>No Arts clubs listed</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="inlineStr"/>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>No Cultural clubs listed</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="inlineStr"/>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="inlineStr">
+        <is>
+          <t>No Volunteering &amp; Advocacy clubs listed</t>
+        </is>
+      </c>
+      <c r="B4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="inlineStr"/>
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="inlineStr">
+        <is>
+          <t>No Social clubs listed</t>
+        </is>
+      </c>
+      <c r="B5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20" t="inlineStr"/>
+      <c r="D5" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="inlineStr">
+        <is>
+          <t>FIRSTRobotics Competition</t>
+        </is>
+      </c>
+      <c r="B6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22" t="inlineStr"/>
+      <c r="D6" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="inlineStr">
+        <is>
+          <t>VEX Robotics</t>
+        </is>
+      </c>
+      <c r="B7" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="inlineStr">
+        <is>
+          <t>CAMS participates in regional, state, and world competitions, and hosts tournaments as well. By participating in VEX robotics, students learn about mechanical and electrical systems, gear ratios, documenting the engineering design process, and computer programming. In addition to learning these valuable engineering skills, students develop career readiness skills such as collaboration, communication, and creativity.</t>
+        </is>
+      </c>
+      <c r="D7" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="inlineStr">
+        <is>
+          <t>Remotely Operated Vehicle (ROV) Team</t>
+        </is>
+      </c>
+      <c r="B8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="inlineStr">
+        <is>
+          <t>Short Description</t>
+        </is>
+      </c>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="inlineStr">
+        <is>
+          <t>No Other clubs listed</t>
+        </is>
+      </c>
+      <c r="B9" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24" t="inlineStr"/>
+      <c r="D9" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E9" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>FIRST Robotics Competition (FRC) c</t>
+        </is>
+      </c>
+      <c r="B10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>The Nerd Herd, Team 687, has participated with FRC Robotics since 2001. The team focuses on spreading the message of FIRST (For Inspiration and Recognition of Science and Technology) while competing in friendly robotics competitions. Every year, the team is given a new challenge to build a robot that will fulfill the requirements.</t>
+        </is>
+      </c>
+      <c r="D10" s="12" t="inlineStr"/>
+      <c r="E10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="inlineStr">
+        <is>
+          <t>Gender (Boys, Girls, Coed)</t>
+        </is>
+      </c>
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>CIF -- years gone to playoffs (since 2000)</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>Moore League -- years won (since 2000)</t>
+        </is>
+      </c>
+      <c r="E1" s="26" t="inlineStr">
+        <is>
+          <t>Other tournaments/awards</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>